--- a/va_facility_data_2025-02-20/Camdenton VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Camdenton%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Camdenton VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Camdenton%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rf1bc8d5eeccc4fb990ac0ad0cc5424b8"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R4f56479c2c4545cb8d9816f6f8dad289"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R172ffbd728d043d18169a213098a67ca"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R59f47b1c587e4f27bc801be54d6fb06d"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R66c9a34418e74c7b996a11a3dfb2a568"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R070423fa740342e5a84b8b79130042ec"/>
   </x:sheets>
 </x:workbook>
 </file>
